--- a/BEPE FAPESP/Pretreatment/Pretreatment data.xlsx
+++ b/BEPE FAPESP/Pretreatment/Pretreatment data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0f5011ef4481e6a/St_App/BEPE FAPESP/Pretreatment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="8_{34FD952E-5554-46A2-8D7F-3DD295A8937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{483790EE-0164-4499-AFE3-48883C51B5B5}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{34FD952E-5554-46A2-8D7F-3DD295A8937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9994BD7-5F6F-4453-B37C-F3A880C3D698}"/>
   <bookViews>
-    <workbookView xWindow="-15300" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{D2DCD616-5988-4C6C-B3E7-EFD846AE1DB1}"/>
+    <workbookView xWindow="24330" yWindow="-18075" windowWidth="18195" windowHeight="17385" xr2:uid="{D2DCD616-5988-4C6C-B3E7-EFD846AE1DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Temperature [°C]</t>
   </si>
@@ -94,6 +94,18 @@
   <si>
     <t>Glucuronic acid</t>
   </si>
+  <si>
+    <t>Celulose Dissolvida [g/L]</t>
+  </si>
+  <si>
+    <t>Concentração de Celulose [g/L]</t>
+  </si>
+  <si>
+    <t>Hemicelulose dissolvida [g/L]</t>
+  </si>
+  <si>
+    <t>Hemicelulose</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -265,11 +277,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +340,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC543A4-0DAC-457A-848A-14A5BE5128F2}">
-  <dimension ref="D3:AA25"/>
+  <dimension ref="D3:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,46 +691,48 @@
     <col min="4" max="4" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.44140625" style="1" customWidth="1"/>
-    <col min="24" max="27" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.44140625" style="1" customWidth="1"/>
+    <col min="27" max="30" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:27" x14ac:dyDescent="0.3">
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+    <row r="3" spans="4:30" x14ac:dyDescent="0.3">
       <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
@@ -715,60 +743,71 @@
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D5" s="8">
         <v>180</v>
       </c>
@@ -779,60 +818,75 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G5" s="9">
+        <f>E5*F5-Q5</f>
+        <v>33.808</v>
+      </c>
+      <c r="H5" s="9">
         <v>0.23</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
+        <f>E5*H5 - Z5</f>
+        <v>21.427800000000001</v>
+      </c>
+      <c r="J5" s="9">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I5" s="9">
+      <c r="K5" s="9">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J5" s="9">
+      <c r="L5" s="9">
         <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.6</v>
       </c>
       <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
         <v>0.01</v>
       </c>
-      <c r="O5" s="9">
+      <c r="Q5" s="1">
+        <f>N5*0.9 + O5 * 3.09 + P5*1.2 +W5</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="R5" s="9">
         <v>0.56000000000000005</v>
       </c>
-      <c r="P5" s="9">
+      <c r="S5" s="9">
         <v>0.15</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="T5" s="9">
         <v>0</v>
       </c>
-      <c r="R5" s="9">
+      <c r="U5" s="9">
         <v>0</v>
       </c>
-      <c r="S5" s="9">
+      <c r="V5" s="9">
         <v>0.02</v>
       </c>
-      <c r="T5" s="9">
+      <c r="W5" s="9">
         <v>0.44</v>
       </c>
-      <c r="U5" s="9">
+      <c r="X5" s="9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="V5" s="10">
+      <c r="Y5" s="10">
         <v>0.35</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="Z5" s="11">
+        <f>R5*0.88 + 0.72*T5 + 0.88*S5 + 1.37*V5 +X5+Y5</f>
+        <v>1.5722</v>
+      </c>
       <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D6" s="12">
         <v>180</v>
       </c>
@@ -842,61 +896,70 @@
       <c r="F6" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9"/>
+      <c r="H6" s="11">
         <v>0.23</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="9"/>
+      <c r="J6" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="K6" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J6" s="11">
+      <c r="L6" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K6" s="11">
+      <c r="M6" s="11">
         <v>5</v>
       </c>
-      <c r="L6" s="12">
+      <c r="N6" s="12">
         <v>1.91</v>
       </c>
-      <c r="M6" s="11">
+      <c r="O6" s="11">
         <v>0.44</v>
       </c>
-      <c r="N6" s="11">
+      <c r="P6" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O6" s="11">
+      <c r="Q6" s="1">
+        <f t="shared" ref="Q6:Q25" si="0">N6*0.9 + O6 * 3.09 + P6*1.2 +W6</f>
+        <v>3.6126</v>
+      </c>
+      <c r="R6" s="11">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P6" s="11">
+      <c r="S6" s="11">
         <v>0.96</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="T6" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="R6" s="11">
+      <c r="U6" s="11">
         <v>0.23</v>
       </c>
-      <c r="S6" s="11">
+      <c r="V6" s="11">
         <v>0.11</v>
       </c>
-      <c r="T6" s="11">
+      <c r="W6" s="11">
         <v>0.45</v>
       </c>
-      <c r="U6" s="11">
+      <c r="X6" s="11">
         <v>4.47</v>
       </c>
-      <c r="V6" s="13">
+      <c r="Y6" s="13">
         <v>0.67</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="Z6" s="11">
+        <f t="shared" ref="Z6:Z25" si="1">R6*0.88 + 0.72*T6 + 0.88*S6 + 1.37*V6 +X6+Y6</f>
+        <v>7.3386999999999993</v>
+      </c>
       <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D7" s="12">
         <v>180</v>
       </c>
@@ -906,61 +969,70 @@
       <c r="F7" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9"/>
+      <c r="H7" s="11">
         <v>0.23</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="9"/>
+      <c r="J7" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I7" s="11">
+      <c r="K7" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J7" s="11">
+      <c r="L7" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="M7" s="11">
         <v>10</v>
       </c>
-      <c r="L7" s="12">
+      <c r="N7" s="12">
         <v>2.06</v>
       </c>
-      <c r="M7" s="11">
+      <c r="O7" s="11">
         <v>0.47</v>
       </c>
-      <c r="N7" s="11">
+      <c r="P7" s="11">
         <v>0.08</v>
       </c>
-      <c r="O7" s="11">
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7923000000000004</v>
+      </c>
+      <c r="R7" s="11">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P7" s="11">
+      <c r="S7" s="11">
         <v>0.98</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="T7" s="11">
         <v>0.35</v>
       </c>
-      <c r="R7" s="11">
+      <c r="U7" s="11">
         <v>0.3</v>
       </c>
-      <c r="S7" s="11">
+      <c r="V7" s="11">
         <v>0.13</v>
       </c>
-      <c r="T7" s="11">
+      <c r="W7" s="11">
         <v>0.39</v>
       </c>
-      <c r="U7" s="11">
+      <c r="X7" s="11">
         <v>5.52</v>
       </c>
-      <c r="V7" s="13">
+      <c r="Y7" s="13">
         <v>0.78</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="Z7" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5693000000000001</v>
+      </c>
       <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D8" s="12">
         <v>180</v>
       </c>
@@ -970,61 +1042,70 @@
       <c r="F8" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9"/>
+      <c r="H8" s="11">
         <v>0.23</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="9"/>
+      <c r="J8" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I8" s="11">
+      <c r="K8" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J8" s="11">
+      <c r="L8" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="M8" s="11">
         <v>15</v>
       </c>
-      <c r="L8" s="12">
+      <c r="N8" s="12">
         <v>2.2200000000000002</v>
       </c>
-      <c r="M8" s="11">
+      <c r="O8" s="11">
         <v>0.5</v>
       </c>
-      <c r="N8" s="11">
+      <c r="P8" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O8" s="11">
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="R8" s="11">
         <v>1.38</v>
       </c>
-      <c r="P8" s="11">
+      <c r="S8" s="11">
         <v>0.37</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="R8" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="S8" s="11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="T8" s="11">
         <v>0.4</v>
       </c>
       <c r="U8" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="X8" s="11">
         <v>7.03</v>
       </c>
-      <c r="V8" s="13">
+      <c r="Y8" s="13">
         <v>0.8</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+      <c r="Z8" s="11">
+        <f t="shared" si="1"/>
+        <v>9.8498000000000019</v>
+      </c>
       <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
     </row>
-    <row r="9" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D9" s="12">
         <v>180</v>
       </c>
@@ -1034,61 +1115,70 @@
       <c r="F9" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11">
         <v>0.23</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="9"/>
+      <c r="J9" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I9" s="11">
+      <c r="K9" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J9" s="11">
+      <c r="L9" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K9" s="11">
+      <c r="M9" s="11">
         <v>20</v>
       </c>
-      <c r="L9" s="12">
+      <c r="N9" s="12">
         <v>2.25</v>
       </c>
-      <c r="M9" s="11">
+      <c r="O9" s="11">
         <v>0.82</v>
       </c>
-      <c r="N9" s="11">
+      <c r="P9" s="11">
         <v>0.09</v>
       </c>
-      <c r="O9" s="11">
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9867999999999997</v>
+      </c>
+      <c r="R9" s="11">
         <v>1.03</v>
       </c>
-      <c r="P9" s="11">
+      <c r="S9" s="11">
         <v>1.17</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="T9" s="11">
         <v>0.49</v>
       </c>
-      <c r="R9" s="11">
+      <c r="U9" s="11">
         <v>0.4</v>
       </c>
-      <c r="S9" s="11">
+      <c r="V9" s="11">
         <v>0.22</v>
       </c>
-      <c r="T9" s="11">
+      <c r="W9" s="11">
         <v>0.32</v>
       </c>
-      <c r="U9" s="11">
+      <c r="X9" s="11">
         <v>10.27</v>
       </c>
-      <c r="V9" s="13">
+      <c r="Y9" s="13">
         <v>0.89</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="Z9" s="11">
+        <f t="shared" si="1"/>
+        <v>13.7502</v>
+      </c>
       <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D10" s="12">
         <v>180</v>
       </c>
@@ -1098,61 +1188,70 @@
       <c r="F10" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11">
         <v>0.23</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="9"/>
+      <c r="J10" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I10" s="11">
+      <c r="K10" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J10" s="11">
+      <c r="L10" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K10" s="11">
+      <c r="M10" s="11">
         <v>30</v>
       </c>
-      <c r="L10" s="12">
+      <c r="N10" s="12">
         <v>2.4900000000000002</v>
       </c>
-      <c r="M10" s="11">
+      <c r="O10" s="11">
         <v>0.9</v>
       </c>
-      <c r="N10" s="11">
+      <c r="P10" s="11">
         <v>0.15</v>
       </c>
-      <c r="O10" s="11">
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4619999999999997</v>
+      </c>
+      <c r="R10" s="11">
         <v>1.28</v>
       </c>
-      <c r="P10" s="11">
+      <c r="S10" s="11">
         <v>1.03</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="T10" s="11">
         <v>0.68</v>
       </c>
-      <c r="R10" s="11">
+      <c r="U10" s="11">
         <v>0.97</v>
       </c>
-      <c r="S10" s="11">
+      <c r="V10" s="11">
         <v>0.39</v>
       </c>
-      <c r="T10" s="11">
+      <c r="W10" s="11">
         <v>0.26</v>
       </c>
-      <c r="U10" s="11">
+      <c r="X10" s="11">
         <v>12.25</v>
       </c>
-      <c r="V10" s="13">
+      <c r="Y10" s="13">
         <v>1.06</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+      <c r="Z10" s="11">
+        <f t="shared" si="1"/>
+        <v>16.366699999999998</v>
+      </c>
       <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
-    <row r="11" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D11" s="14">
         <v>180</v>
       </c>
@@ -1162,61 +1261,70 @@
       <c r="F11" s="15">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="9"/>
+      <c r="H11" s="15">
         <v>0.23</v>
       </c>
-      <c r="H11" s="15">
+      <c r="I11" s="9"/>
+      <c r="J11" s="15">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I11" s="15">
+      <c r="K11" s="15">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J11" s="15">
+      <c r="L11" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="M11" s="15">
         <v>40</v>
       </c>
-      <c r="L11" s="12">
+      <c r="N11" s="12">
         <v>2.64</v>
       </c>
-      <c r="M11" s="11">
+      <c r="O11" s="11">
         <v>0.94</v>
       </c>
-      <c r="N11" s="11">
+      <c r="P11" s="11">
         <v>0.18</v>
       </c>
-      <c r="O11" s="11">
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6665999999999999</v>
+      </c>
+      <c r="R11" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P11" s="11">
+      <c r="S11" s="11">
         <v>1.01</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="T11" s="11">
         <v>0.9</v>
       </c>
-      <c r="R11" s="11">
+      <c r="U11" s="11">
         <v>2.86</v>
       </c>
-      <c r="S11" s="11">
+      <c r="V11" s="11">
         <v>0.9</v>
       </c>
-      <c r="T11" s="11">
+      <c r="W11" s="11">
         <v>0.17</v>
       </c>
-      <c r="U11" s="11">
+      <c r="X11" s="11">
         <v>11.91</v>
       </c>
-      <c r="V11" s="13">
+      <c r="Y11" s="13">
         <v>0.63</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="Z11" s="11">
+        <f t="shared" si="1"/>
+        <v>17.0962</v>
+      </c>
       <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
     </row>
-    <row r="12" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D12" s="8">
         <v>195</v>
       </c>
@@ -1227,60 +1335,75 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G12" s="9">
+        <f>E12*F12-Q12</f>
+        <v>33.055999999999997</v>
+      </c>
+      <c r="H12" s="9">
         <v>0.23</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
+        <f t="shared" ref="I6:I25" si="2">E12*H12 - Z12</f>
+        <v>19.6296</v>
+      </c>
+      <c r="J12" s="9">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I12" s="9">
+      <c r="K12" s="9">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J12" s="9">
+      <c r="L12" s="9">
         <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1.1599999999999999</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
         <v>0.05</v>
       </c>
-      <c r="O12" s="9">
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7440000000000002</v>
+      </c>
+      <c r="R12" s="9">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P12" s="9">
+      <c r="S12" s="9">
         <v>0.27</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="T12" s="9">
         <v>0.13</v>
       </c>
-      <c r="R12" s="9">
+      <c r="U12" s="9">
         <v>0</v>
       </c>
-      <c r="S12" s="9">
+      <c r="V12" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T12" s="9">
+      <c r="W12" s="9">
         <v>0.64</v>
       </c>
-      <c r="U12" s="9">
+      <c r="X12" s="9">
         <v>1.45</v>
       </c>
-      <c r="V12" s="10">
+      <c r="Y12" s="10">
         <v>0.22</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="Z12" s="11">
+        <f t="shared" si="1"/>
+        <v>3.3704000000000005</v>
+      </c>
       <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
     </row>
-    <row r="13" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D13" s="12">
         <v>195</v>
       </c>
@@ -1290,61 +1413,70 @@
       <c r="F13" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9"/>
+      <c r="H13" s="11">
         <v>0.23</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="9"/>
+      <c r="J13" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I13" s="11">
+      <c r="K13" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J13" s="11">
+      <c r="L13" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K13" s="11">
+      <c r="M13" s="11">
         <v>5</v>
       </c>
-      <c r="L13" s="12">
+      <c r="N13" s="12">
         <v>2.04</v>
       </c>
-      <c r="M13" s="11">
+      <c r="O13" s="11">
         <v>0.64</v>
       </c>
-      <c r="N13" s="11">
+      <c r="P13" s="11">
         <v>0.13</v>
       </c>
-      <c r="O13" s="11">
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9396000000000004</v>
+      </c>
+      <c r="R13" s="11">
         <v>1.39</v>
       </c>
-      <c r="P13" s="11">
+      <c r="S13" s="11">
         <v>0.92</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="T13" s="11">
         <v>0.45</v>
       </c>
-      <c r="R13" s="11">
+      <c r="U13" s="11">
         <v>0.51</v>
       </c>
-      <c r="S13" s="11">
+      <c r="V13" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T13" s="11">
+      <c r="W13" s="11">
         <v>0.97</v>
       </c>
-      <c r="U13" s="11">
+      <c r="X13" s="11">
         <v>6.48</v>
       </c>
-      <c r="V13" s="13">
+      <c r="Y13" s="13">
         <v>0.7</v>
       </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="Z13" s="11">
+        <f t="shared" si="1"/>
+        <v>9.920399999999999</v>
+      </c>
       <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
     </row>
-    <row r="14" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D14" s="12">
         <v>195</v>
       </c>
@@ -1354,61 +1486,70 @@
       <c r="F14" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="9"/>
+      <c r="H14" s="11">
         <v>0.23</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="9"/>
+      <c r="J14" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I14" s="11">
+      <c r="K14" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J14" s="11">
+      <c r="L14" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K14" s="11">
+      <c r="M14" s="11">
         <v>10</v>
       </c>
-      <c r="L14" s="12">
+      <c r="N14" s="12">
         <v>2.2599999999999998</v>
       </c>
-      <c r="M14" s="11">
+      <c r="O14" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N14" s="11">
+      <c r="P14" s="11">
         <v>0.22</v>
       </c>
-      <c r="O14" s="11">
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7170000000000005</v>
+      </c>
+      <c r="R14" s="11">
         <v>1.92</v>
       </c>
-      <c r="P14" s="11">
+      <c r="S14" s="11">
         <v>0.96</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="T14" s="11">
         <v>0.8</v>
       </c>
-      <c r="R14" s="11">
+      <c r="U14" s="11">
         <v>2.4</v>
       </c>
-      <c r="S14" s="11">
+      <c r="V14" s="11">
         <v>0.64</v>
       </c>
-      <c r="T14" s="11">
+      <c r="W14" s="11">
         <v>1.02</v>
       </c>
-      <c r="U14" s="11">
+      <c r="X14" s="11">
         <v>9.66</v>
       </c>
-      <c r="V14" s="13">
+      <c r="Y14" s="13">
         <v>0.91</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="Z14" s="11">
+        <f t="shared" si="1"/>
+        <v>14.557200000000002</v>
+      </c>
       <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
     </row>
-    <row r="15" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D15" s="12">
         <v>195</v>
       </c>
@@ -1418,61 +1559,70 @@
       <c r="F15" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="9"/>
+      <c r="H15" s="11">
         <v>0.23</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="9"/>
+      <c r="J15" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I15" s="11">
+      <c r="K15" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J15" s="11">
+      <c r="L15" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K15" s="11">
+      <c r="M15" s="11">
         <v>15</v>
       </c>
-      <c r="L15" s="12">
+      <c r="N15" s="12">
         <v>2.5099999999999998</v>
       </c>
-      <c r="M15" s="11">
+      <c r="O15" s="11">
         <v>1.37</v>
       </c>
-      <c r="N15" s="11">
+      <c r="P15" s="11">
         <v>0.34</v>
       </c>
-      <c r="O15" s="11">
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3303000000000003</v>
+      </c>
+      <c r="R15" s="11">
         <v>2.91</v>
       </c>
-      <c r="P15" s="11">
+      <c r="S15" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="T15" s="11">
         <v>1.08</v>
       </c>
-      <c r="R15" s="11">
+      <c r="U15" s="11">
         <v>3.88</v>
       </c>
-      <c r="S15" s="11">
+      <c r="V15" s="11">
         <v>1.37</v>
       </c>
-      <c r="T15" s="11">
+      <c r="W15" s="11">
         <v>0.43</v>
       </c>
-      <c r="U15" s="11">
+      <c r="X15" s="11">
         <v>11.12</v>
       </c>
-      <c r="V15" s="13">
+      <c r="Y15" s="13">
         <v>0.36</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+      <c r="Z15" s="11">
+        <f t="shared" si="1"/>
+        <v>17.6633</v>
+      </c>
       <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
     </row>
-    <row r="16" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D16" s="12">
         <v>195</v>
       </c>
@@ -1482,61 +1632,70 @@
       <c r="F16" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="9"/>
+      <c r="H16" s="11">
         <v>0.23</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="9"/>
+      <c r="J16" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I16" s="11">
+      <c r="K16" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J16" s="11">
+      <c r="L16" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K16" s="11">
+      <c r="M16" s="11">
         <v>20</v>
       </c>
-      <c r="L16" s="12">
+      <c r="N16" s="12">
         <v>2.4500000000000002</v>
       </c>
-      <c r="M16" s="11">
+      <c r="O16" s="11">
         <v>1.72</v>
       </c>
-      <c r="N16" s="11">
+      <c r="P16" s="11">
         <v>0.45</v>
       </c>
-      <c r="O16" s="11">
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.2698</v>
+      </c>
+      <c r="R16" s="11">
         <v>3.71</v>
       </c>
-      <c r="P16" s="11">
+      <c r="S16" s="11">
         <v>0.97</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="T16" s="11">
         <v>1.23</v>
       </c>
-      <c r="R16" s="11">
+      <c r="U16" s="11">
         <v>4.72</v>
       </c>
-      <c r="S16" s="11">
+      <c r="V16" s="11">
         <v>2.38</v>
       </c>
-      <c r="T16" s="11">
+      <c r="W16" s="11">
         <v>0.21</v>
       </c>
-      <c r="U16" s="11">
+      <c r="X16" s="11">
         <v>5.43</v>
       </c>
-      <c r="V16" s="13">
+      <c r="Y16" s="13">
         <v>0.11</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="11">
+        <f t="shared" si="1"/>
+        <v>13.804600000000001</v>
+      </c>
       <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
     </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D17" s="12">
         <v>195</v>
       </c>
@@ -1546,61 +1705,70 @@
       <c r="F17" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9"/>
+      <c r="H17" s="11">
         <v>0.23</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="9"/>
+      <c r="J17" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I17" s="11">
+      <c r="K17" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J17" s="11">
+      <c r="L17" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K17" s="11">
+      <c r="M17" s="11">
         <v>30</v>
       </c>
-      <c r="L17" s="12">
+      <c r="N17" s="12">
         <v>2.13</v>
       </c>
-      <c r="M17" s="11">
+      <c r="O17" s="11">
         <v>1.95</v>
       </c>
-      <c r="N17" s="11">
+      <c r="P17" s="11">
         <v>0.6</v>
       </c>
-      <c r="O17" s="11">
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7624999999999993</v>
+      </c>
+      <c r="R17" s="11">
         <v>4.93</v>
       </c>
-      <c r="P17" s="11">
+      <c r="S17" s="11">
         <v>0.82</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="T17" s="11">
         <v>1.66</v>
       </c>
-      <c r="R17" s="11">
+      <c r="U17" s="11">
         <v>3.79</v>
       </c>
-      <c r="S17" s="11">
+      <c r="V17" s="11">
         <v>3.97</v>
       </c>
-      <c r="T17" s="11">
+      <c r="W17" s="11">
         <v>0.1</v>
       </c>
-      <c r="U17" s="11">
+      <c r="X17" s="11">
         <v>3.39</v>
       </c>
-      <c r="V17" s="13">
+      <c r="Y17" s="13">
         <v>0.47</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
+      <c r="Z17" s="11">
+        <f t="shared" si="1"/>
+        <v>15.5541</v>
+      </c>
       <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
     </row>
-    <row r="18" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D18" s="14">
         <v>195</v>
       </c>
@@ -1610,61 +1778,70 @@
       <c r="F18" s="15">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="9"/>
+      <c r="H18" s="15">
         <v>0.23</v>
       </c>
-      <c r="H18" s="15">
+      <c r="I18" s="9"/>
+      <c r="J18" s="15">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I18" s="15">
+      <c r="K18" s="15">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J18" s="15">
+      <c r="L18" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K18" s="15">
+      <c r="M18" s="15">
         <v>40</v>
       </c>
-      <c r="L18" s="12">
+      <c r="N18" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="M18" s="11">
+      <c r="O18" s="11">
         <v>0.89</v>
       </c>
-      <c r="N18" s="11">
+      <c r="P18" s="11">
         <v>0.74</v>
       </c>
-      <c r="O18" s="11">
+      <c r="Q18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7561</v>
+      </c>
+      <c r="R18" s="11">
         <v>3.47</v>
       </c>
-      <c r="P18" s="11">
+      <c r="S18" s="11">
         <v>0.36</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="T18" s="11">
         <v>1.53</v>
       </c>
-      <c r="R18" s="11">
+      <c r="U18" s="11">
         <v>1.26</v>
       </c>
-      <c r="S18" s="11">
+      <c r="V18" s="11">
         <v>5.31</v>
       </c>
-      <c r="T18" s="11">
+      <c r="W18" s="11">
         <v>0.11</v>
       </c>
-      <c r="U18" s="11">
+      <c r="X18" s="11">
         <v>0.65</v>
       </c>
-      <c r="V18" s="13">
+      <c r="Y18" s="13">
         <v>0.05</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
+      <c r="Z18" s="11">
+        <f t="shared" si="1"/>
+        <v>12.446700000000002</v>
+      </c>
       <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
     </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D19" s="8">
         <v>210</v>
       </c>
@@ -1675,60 +1852,75 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G19" s="9">
+        <f>E19*F19-Q19</f>
+        <v>29.793799999999997</v>
+      </c>
+      <c r="H19" s="9">
         <v>0.23</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
+        <f t="shared" si="2"/>
+        <v>12.256599999999999</v>
+      </c>
+      <c r="J19" s="9">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I19" s="9">
+      <c r="K19" s="9">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J19" s="9">
+      <c r="L19" s="9">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K19" s="9">
+      <c r="M19" s="9">
         <v>0</v>
       </c>
-      <c r="L19" s="8">
+      <c r="N19" s="8">
         <v>2.12</v>
       </c>
-      <c r="M19" s="9">
+      <c r="O19" s="9">
         <v>0.78</v>
       </c>
-      <c r="N19" s="9">
+      <c r="P19" s="9">
         <v>0.49</v>
       </c>
-      <c r="O19" s="9">
+      <c r="Q19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0061999999999998</v>
+      </c>
+      <c r="R19" s="9">
         <v>1.47</v>
       </c>
-      <c r="P19" s="9">
+      <c r="S19" s="9">
         <v>0.43</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="T19" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R19" s="9">
+      <c r="U19" s="9">
         <v>1.81</v>
       </c>
-      <c r="S19" s="9">
+      <c r="V19" s="9">
         <v>2.74</v>
       </c>
-      <c r="T19" s="9">
+      <c r="W19" s="9">
         <v>0.1</v>
       </c>
-      <c r="U19" s="9">
+      <c r="X19" s="9">
         <v>4.7300000000000004</v>
       </c>
-      <c r="V19" s="10">
+      <c r="Y19" s="10">
         <v>0.17</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+      <c r="Z19" s="11">
+        <f t="shared" si="1"/>
+        <v>10.743400000000001</v>
+      </c>
       <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
     </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D20" s="12">
         <v>210</v>
       </c>
@@ -1738,61 +1930,70 @@
       <c r="F20" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="9"/>
+      <c r="H20" s="11">
         <v>0.23</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="9"/>
+      <c r="J20" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I20" s="11">
+      <c r="K20" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J20" s="11">
+      <c r="L20" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K20" s="11">
+      <c r="M20" s="11">
         <v>5</v>
       </c>
-      <c r="L20" s="12">
+      <c r="N20" s="12">
         <v>2.44</v>
       </c>
-      <c r="M20" s="11">
+      <c r="O20" s="11">
         <v>1.87</v>
       </c>
-      <c r="N20" s="11">
+      <c r="P20" s="11">
         <v>0.48</v>
       </c>
-      <c r="O20" s="11">
+      <c r="Q20" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8003</v>
+      </c>
+      <c r="R20" s="11">
         <v>4.04</v>
       </c>
-      <c r="P20" s="11">
+      <c r="S20" s="11">
         <v>0.86</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="T20" s="11">
         <v>1.44</v>
       </c>
-      <c r="R20" s="11">
+      <c r="U20" s="11">
         <v>4.17</v>
       </c>
-      <c r="S20" s="11">
+      <c r="V20" s="11">
         <v>2.72</v>
       </c>
-      <c r="T20" s="11">
+      <c r="W20" s="11">
         <v>0.25</v>
       </c>
-      <c r="U20" s="11">
+      <c r="X20" s="11">
         <v>7.07</v>
       </c>
-      <c r="V20" s="13">
+      <c r="Y20" s="13">
         <v>0.23</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="Z20" s="11">
+        <f t="shared" si="1"/>
+        <v>16.375200000000003</v>
+      </c>
       <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D21" s="12">
         <v>210</v>
       </c>
@@ -1802,61 +2003,70 @@
       <c r="F21" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="9"/>
+      <c r="H21" s="11">
         <v>0.23</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="9"/>
+      <c r="J21" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I21" s="11">
+      <c r="K21" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J21" s="11">
+      <c r="L21" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="M21" s="11">
         <v>10</v>
       </c>
-      <c r="L21" s="12">
+      <c r="N21" s="12">
         <v>1.38</v>
       </c>
-      <c r="M21" s="11">
+      <c r="O21" s="11">
         <v>2.12</v>
       </c>
-      <c r="N21" s="11">
+      <c r="P21" s="11">
         <v>0.75</v>
       </c>
-      <c r="O21" s="11">
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3127999999999993</v>
+      </c>
+      <c r="R21" s="11">
         <v>4.16</v>
       </c>
-      <c r="P21" s="11">
+      <c r="S21" s="11">
         <v>1.1499999999999999</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="T21" s="11">
         <v>2</v>
       </c>
-      <c r="R21" s="11">
+      <c r="U21" s="11">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S21" s="11">
+      <c r="V21" s="11">
         <v>5.07</v>
       </c>
-      <c r="T21" s="11">
+      <c r="W21" s="11">
         <v>0.62</v>
       </c>
-      <c r="U21" s="11">
+      <c r="X21" s="11">
         <v>0.94</v>
       </c>
-      <c r="V21" s="13">
+      <c r="Y21" s="13">
         <v>0.05</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="Z21" s="11">
+        <f t="shared" si="1"/>
+        <v>14.048700000000002</v>
+      </c>
       <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
     </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D22" s="12">
         <v>210</v>
       </c>
@@ -1866,61 +2076,70 @@
       <c r="F22" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9"/>
+      <c r="H22" s="11">
         <v>0.23</v>
       </c>
-      <c r="H22" s="11">
+      <c r="I22" s="9"/>
+      <c r="J22" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I22" s="11">
+      <c r="K22" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J22" s="11">
+      <c r="L22" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K22" s="11">
+      <c r="M22" s="11">
         <v>15</v>
       </c>
-      <c r="L22" s="12">
+      <c r="N22" s="12">
         <v>1.18</v>
       </c>
-      <c r="M22" s="11">
+      <c r="O22" s="11">
         <v>2.38</v>
       </c>
-      <c r="N22" s="11">
+      <c r="P22" s="11">
         <v>1.17</v>
       </c>
-      <c r="O22" s="11">
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>10.420199999999999</v>
+      </c>
+      <c r="R22" s="11">
         <v>1.0900000000000001</v>
       </c>
-      <c r="P22" s="11">
+      <c r="S22" s="11">
         <v>1.06</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="T22" s="11">
         <v>2.21</v>
       </c>
-      <c r="R22" s="11">
+      <c r="U22" s="11">
         <v>0.47</v>
       </c>
-      <c r="S22" s="11">
+      <c r="V22" s="11">
         <v>5.4</v>
       </c>
-      <c r="T22" s="11">
+      <c r="W22" s="11">
         <v>0.6</v>
       </c>
-      <c r="U22" s="11">
+      <c r="X22" s="11">
         <v>0.22</v>
       </c>
-      <c r="V22" s="13">
+      <c r="Y22" s="13">
         <v>0.03</v>
       </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="Z22" s="11">
+        <f t="shared" si="1"/>
+        <v>11.131200000000002</v>
+      </c>
       <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D23" s="12">
         <v>210</v>
       </c>
@@ -1930,61 +2149,70 @@
       <c r="F23" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="9"/>
+      <c r="H23" s="11">
         <v>0.23</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="9"/>
+      <c r="J23" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I23" s="11">
+      <c r="K23" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J23" s="11">
+      <c r="L23" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K23" s="11">
+      <c r="M23" s="11">
         <v>20</v>
       </c>
-      <c r="L23" s="12">
+      <c r="N23" s="12">
         <v>0.86</v>
       </c>
-      <c r="M23" s="11">
+      <c r="O23" s="11">
         <v>2.36</v>
       </c>
-      <c r="N23" s="11">
+      <c r="P23" s="11">
         <v>1.2</v>
       </c>
-      <c r="O23" s="11">
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>10.016399999999997</v>
+      </c>
+      <c r="R23" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P23" s="11">
+      <c r="S23" s="11">
         <v>0.35</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="T23" s="11">
         <v>2.0499999999999998</v>
       </c>
-      <c r="R23" s="11">
+      <c r="U23" s="11">
         <v>0.45</v>
       </c>
-      <c r="S23" s="11">
+      <c r="V23" s="11">
         <v>4.7699999999999996</v>
       </c>
-      <c r="T23" s="11">
+      <c r="W23" s="11">
         <v>0.51</v>
       </c>
-      <c r="U23" s="11">
+      <c r="X23" s="11">
         <v>0.24</v>
       </c>
-      <c r="V23" s="13">
+      <c r="Y23" s="13">
         <v>0.03</v>
       </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
+      <c r="Z23" s="11">
+        <f t="shared" si="1"/>
+        <v>9.0992999999999995</v>
+      </c>
       <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
     </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D24" s="12">
         <v>210</v>
       </c>
@@ -1994,61 +2222,70 @@
       <c r="F24" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9"/>
+      <c r="H24" s="11">
         <v>0.23</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="9"/>
+      <c r="J24" s="11">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I24" s="11">
+      <c r="K24" s="11">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J24" s="11">
+      <c r="L24" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K24" s="11">
+      <c r="M24" s="11">
         <v>30</v>
       </c>
-      <c r="L24" s="12">
+      <c r="N24" s="12">
         <v>0.82</v>
       </c>
-      <c r="M24" s="11">
+      <c r="O24" s="11">
         <v>1.98</v>
       </c>
-      <c r="N24" s="11">
+      <c r="P24" s="11">
         <v>1.01</v>
       </c>
-      <c r="O24" s="11">
+      <c r="Q24" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3581999999999983</v>
+      </c>
+      <c r="R24" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P24" s="11">
+      <c r="S24" s="11">
         <v>0.31</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="T24" s="11">
         <v>1.7</v>
       </c>
-      <c r="R24" s="11">
+      <c r="U24" s="11">
         <v>0.42</v>
       </c>
-      <c r="S24" s="11">
+      <c r="V24" s="11">
         <v>4.33</v>
       </c>
-      <c r="T24" s="11">
+      <c r="W24" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U24" s="11">
+      <c r="X24" s="11">
         <v>0.12</v>
       </c>
-      <c r="V24" s="13">
+      <c r="Y24" s="13">
         <v>0.01</v>
       </c>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
+      <c r="Z24" s="11">
+        <f t="shared" si="1"/>
+        <v>8.0604999999999993</v>
+      </c>
       <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
     </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D25" s="14">
         <v>210</v>
       </c>
@@ -2058,59 +2295,68 @@
       <c r="F25" s="15">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="9"/>
+      <c r="H25" s="15">
         <v>0.23</v>
       </c>
-      <c r="H25" s="15">
+      <c r="I25" s="9"/>
+      <c r="J25" s="15">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I25" s="15">
+      <c r="K25" s="15">
         <v>0.14899999999999999</v>
       </c>
-      <c r="J25" s="15">
+      <c r="L25" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K25" s="15">
+      <c r="M25" s="15">
         <v>40</v>
       </c>
-      <c r="L25" s="14">
+      <c r="N25" s="14">
         <v>0.51</v>
       </c>
-      <c r="M25" s="15">
+      <c r="O25" s="15">
         <v>1.75</v>
       </c>
-      <c r="N25" s="15">
+      <c r="P25" s="15">
         <v>0.98</v>
       </c>
-      <c r="O25" s="15">
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3424999999999994</v>
+      </c>
+      <c r="R25" s="15">
         <v>0.37</v>
       </c>
-      <c r="P25" s="15">
+      <c r="S25" s="15">
         <v>0.27</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="T25" s="15">
         <v>1.55</v>
       </c>
-      <c r="R25" s="15">
+      <c r="U25" s="15">
         <v>0.34</v>
       </c>
-      <c r="S25" s="15">
+      <c r="V25" s="15">
         <v>3.79</v>
       </c>
-      <c r="T25" s="15">
+      <c r="W25" s="15">
         <v>0.3</v>
       </c>
-      <c r="U25" s="15">
+      <c r="X25" s="15">
         <v>0.22</v>
       </c>
-      <c r="V25" s="16">
+      <c r="Y25" s="16">
         <v>0.12</v>
       </c>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="Z25" s="11">
+        <f t="shared" si="1"/>
+        <v>7.2115</v>
+      </c>
       <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/BEPE FAPESP/Pretreatment/Pretreatment data.xlsx
+++ b/BEPE FAPESP/Pretreatment/Pretreatment data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0f5011ef4481e6a/St_App/BEPE FAPESP/Pretreatment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0f5011ef4481e6a/Ethanol-AI/BEPE FAPESP/Pretreatment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{34FD952E-5554-46A2-8D7F-3DD295A8937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9994BD7-5F6F-4453-B37C-F3A880C3D698}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="8_{34FD952E-5554-46A2-8D7F-3DD295A8937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1141B7D-EE61-4AF4-86E2-81A00F18C73E}"/>
   <bookViews>
-    <workbookView xWindow="24330" yWindow="-18075" windowWidth="18195" windowHeight="17385" xr2:uid="{D2DCD616-5988-4C6C-B3E7-EFD846AE1DB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2DCD616-5988-4C6C-B3E7-EFD846AE1DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -362,6 +362,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -681,15 +685,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC543A4-0DAC-457A-848A-14A5BE5128F2}">
   <dimension ref="D3:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="25.88671875" style="1" customWidth="1"/>
@@ -1342,7 +1346,7 @@
         <v>0.23</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" ref="I6:I25" si="2">E12*H12 - Z12</f>
+        <f t="shared" ref="I12:I19" si="2">E12*H12 - Z12</f>
         <v>19.6296</v>
       </c>
       <c r="J12" s="9">

--- a/BEPE FAPESP/Pretreatment/Pretreatment data.xlsx
+++ b/BEPE FAPESP/Pretreatment/Pretreatment data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0f5011ef4481e6a/Ethanol-AI/BEPE FAPESP/Pretreatment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{34FD952E-5554-46A2-8D7F-3DD295A8937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1141B7D-EE61-4AF4-86E2-81A00F18C73E}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{34FD952E-5554-46A2-8D7F-3DD295A8937F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91525214-9FBC-4374-BEA7-01F3CDF3BF78}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2DCD616-5988-4C6C-B3E7-EFD846AE1DB1}"/>
+    <workbookView xWindow="-15300" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{D2DCD616-5988-4C6C-B3E7-EFD846AE1DB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,32 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Temperature [°C]</t>
   </si>
   <si>
-    <t>Solid Loading [g/L]</t>
-  </si>
-  <si>
     <t>Time [min]</t>
   </si>
   <si>
-    <t>Cellulose Composition</t>
-  </si>
-  <si>
-    <t>Hemicellulose Composition</t>
-  </si>
-  <si>
-    <t>Lignin Composition</t>
-  </si>
-  <si>
-    <t>Extractives Composition</t>
-  </si>
-  <si>
-    <t>Ashes Composition</t>
-  </si>
-  <si>
     <t>Glucose + Celobiose</t>
   </si>
   <si>
@@ -98,21 +80,115 @@
     <t>Celulose Dissolvida [g/L]</t>
   </si>
   <si>
-    <t>Concentração de Celulose [g/L]</t>
-  </si>
-  <si>
     <t>Hemicelulose dissolvida [g/L]</t>
   </si>
   <si>
-    <t>Hemicelulose</t>
+    <t>Inicial Cellulose Concentration [g/L]</t>
+  </si>
+  <si>
+    <t>Inicial Cellulose Composition</t>
+  </si>
+  <si>
+    <t>Inicial Hemicellulose Composition</t>
+  </si>
+  <si>
+    <t>Inicial Lignin Composition</t>
+  </si>
+  <si>
+    <t>Inicial Extractives Composition</t>
+  </si>
+  <si>
+    <t>Inicial Ashes Composition</t>
+  </si>
+  <si>
+    <t>Inicial Solid Loading [g/L]</t>
+  </si>
+  <si>
+    <t>Inicial Hemicelulose Concentration [g/L]</t>
+  </si>
+  <si>
+    <t>ln(A)</t>
+  </si>
+  <si>
+    <t>k1 hemi</t>
+  </si>
+  <si>
+    <t>Ea k1 hemi</t>
+  </si>
+  <si>
+    <t>k2 hemi</t>
+  </si>
+  <si>
+    <t>k3 hemi</t>
+  </si>
+  <si>
+    <t>k4 hemi</t>
+  </si>
+  <si>
+    <t>k5 hemi</t>
+  </si>
+  <si>
+    <t>k6 hemi</t>
+  </si>
+  <si>
+    <t>Ea k2 hemi</t>
+  </si>
+  <si>
+    <t>Ea k3 hemi</t>
+  </si>
+  <si>
+    <t>Ea k4 hemi</t>
+  </si>
+  <si>
+    <t>Ea k5 hemi</t>
+  </si>
+  <si>
+    <t>Ea k6 hemi</t>
+  </si>
+  <si>
+    <t>Ea k1 celu</t>
+  </si>
+  <si>
+    <t>Ea k2 celu</t>
+  </si>
+  <si>
+    <t>Ea k3 celu</t>
+  </si>
+  <si>
+    <t>Ea k4 celu</t>
+  </si>
+  <si>
+    <t>Ea k5 celu</t>
+  </si>
+  <si>
+    <t>Ea k6 celu</t>
+  </si>
+  <si>
+    <t>k1 celu</t>
+  </si>
+  <si>
+    <t>k2 celu</t>
+  </si>
+  <si>
+    <t>k3 celu</t>
+  </si>
+  <si>
+    <t>k4 celu</t>
+  </si>
+  <si>
+    <t>k5 celu</t>
+  </si>
+  <si>
+    <t>k6 celu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -161,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -265,42 +341,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -342,7 +404,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,1684 +772,2862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC543A4-0DAC-457A-848A-14A5BE5128F2}">
-  <dimension ref="D3:AD25"/>
+  <dimension ref="D3:BC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="25.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.44140625" style="1" customWidth="1"/>
-    <col min="27" max="30" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="29" width="15.21875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.21875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="10.88671875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.44140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.44140625" style="1" customWidth="1"/>
+    <col min="52" max="55" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
+    <row r="3" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
     </row>
-    <row r="4" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="AM4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="AR4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="AS4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+    </row>
+    <row r="5" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D5" s="7">
+        <v>180</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M5" s="20">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N5" s="20">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O5" s="20">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P5" s="20">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>AD5*AE5-AP5</f>
+        <v>33.808</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>AD5*AG5 - AY5</f>
+        <v>21.427800000000001</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AP5" s="18">
+        <f>AM5*0.9 + AN5 * 3.09 + AO5*1.2 +AV5</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="AY5" s="9">
+        <f>AQ5*0.88 + 0.72*AS5 + 0.88*AR5 + 1.37*AU5 +AW5+AX5</f>
+        <v>1.5722</v>
+      </c>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+    </row>
+    <row r="6" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D6" s="11">
+        <v>180</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M6" s="22">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N6" s="22">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O6" s="22">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P6" s="22">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB6" s="22">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC6" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>33.808</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>21.428000000000001</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AL6" s="10">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="AM6" s="10">
+        <v>1.91</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AP6" s="1">
+        <f t="shared" ref="AP6:AP25" si="0">AM6*0.9 + AN6 * 3.09 + AO6*1.2 +AV6</f>
+        <v>3.6126</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="AS6" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AT6" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AV6" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="AW6" s="10">
+        <v>4.47</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="AY6" s="12">
+        <f t="shared" ref="AY6:AY25" si="1">AQ6*0.88 + 0.72*AS6 + 0.88*AR6 + 1.37*AU6 +AW6+AX6</f>
+        <v>7.3386999999999993</v>
+      </c>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+    </row>
+    <row r="7" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D7" s="11">
+        <v>180</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M7" s="22">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O7" s="22">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB7" s="22">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>33.808</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>21.428000000000001</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AL7" s="10">
         <v>10</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D5" s="8">
-        <v>180</v>
-      </c>
-      <c r="E5" s="9">
-        <v>100</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G5" s="9">
-        <f>E5*F5-Q5</f>
-        <v>33.808</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="I5" s="9">
-        <f>E5*H5 - Z5</f>
-        <v>21.427800000000001</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="L5" s="9">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>N5*0.9 + O5 * 3.09 + P5*1.2 +W5</f>
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-      <c r="V5" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="W5" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="X5" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="Z5" s="11">
-        <f>R5*0.88 + 0.72*T5 + 0.88*S5 + 1.37*V5 +X5+Y5</f>
-        <v>1.5722</v>
-      </c>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-    </row>
-    <row r="6" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D6" s="12">
-        <v>180</v>
-      </c>
-      <c r="E6" s="11">
-        <v>100</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="L6" s="11">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M6" s="11">
-        <v>5</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1.91</v>
-      </c>
-      <c r="O6" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="P6" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" ref="Q6:Q25" si="0">N6*0.9 + O6 * 3.09 + P6*1.2 +W6</f>
-        <v>3.6126</v>
-      </c>
-      <c r="R6" s="11">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="S6" s="11">
-        <v>0.96</v>
-      </c>
-      <c r="T6" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U6" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="W6" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="X6" s="11">
-        <v>4.47</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>0.67</v>
-      </c>
-      <c r="Z6" s="11">
-        <f t="shared" ref="Z6:Z25" si="1">R6*0.88 + 0.72*T6 + 0.88*S6 + 1.37*V6 +X6+Y6</f>
-        <v>7.3386999999999993</v>
-      </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-    </row>
-    <row r="7" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D7" s="12">
-        <v>180</v>
-      </c>
-      <c r="E7" s="11">
-        <v>100</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="11">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="L7" s="11">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M7" s="11">
-        <v>10</v>
-      </c>
-      <c r="N7" s="12">
+      <c r="AM7" s="10">
         <v>2.06</v>
       </c>
-      <c r="O7" s="11">
+      <c r="AN7" s="10">
         <v>0.47</v>
       </c>
-      <c r="P7" s="11">
+      <c r="AO7" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="AP7" s="1">
         <f t="shared" si="0"/>
         <v>3.7923000000000004</v>
       </c>
-      <c r="R7" s="11">
+      <c r="AQ7" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="S7" s="11">
+      <c r="AR7" s="10">
         <v>0.98</v>
       </c>
-      <c r="T7" s="11">
+      <c r="AS7" s="10">
         <v>0.35</v>
       </c>
-      <c r="U7" s="11">
+      <c r="AT7" s="10">
         <v>0.3</v>
       </c>
-      <c r="V7" s="11">
+      <c r="AU7" s="10">
         <v>0.13</v>
       </c>
-      <c r="W7" s="11">
+      <c r="AV7" s="10">
         <v>0.39</v>
       </c>
-      <c r="X7" s="11">
+      <c r="AW7" s="10">
         <v>5.52</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="AX7" s="10">
         <v>0.78</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="AY7" s="12">
         <f t="shared" si="1"/>
         <v>8.5693000000000001</v>
       </c>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
     </row>
-    <row r="8" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D8" s="12">
+    <row r="8" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D8" s="11">
         <v>180</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M8" s="22">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O8" s="22">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD8" s="10">
         <v>100</v>
       </c>
-      <c r="F8" s="11">
+      <c r="AE8" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11">
+      <c r="AF8" s="10">
+        <v>33.808</v>
+      </c>
+      <c r="AG8" s="10">
         <v>0.23</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="11">
+      <c r="AH8" s="10">
+        <v>21.428000000000001</v>
+      </c>
+      <c r="AI8" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K8" s="11">
+      <c r="AJ8" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L8" s="11">
+      <c r="AK8" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M8" s="11">
+      <c r="AL8" s="10">
         <v>15</v>
       </c>
-      <c r="N8" s="12">
+      <c r="AM8" s="10">
         <v>2.2200000000000002</v>
       </c>
-      <c r="O8" s="11">
+      <c r="AN8" s="10">
         <v>0.5</v>
       </c>
-      <c r="P8" s="11">
+      <c r="AO8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="AP8" s="1">
         <f t="shared" si="0"/>
         <v>4.0270000000000001</v>
       </c>
-      <c r="R8" s="11">
+      <c r="AQ8" s="10">
         <v>1.38</v>
       </c>
-      <c r="S8" s="11">
+      <c r="AR8" s="10">
         <v>0.37</v>
       </c>
-      <c r="T8" s="11">
+      <c r="AS8" s="10">
         <v>0.4</v>
       </c>
-      <c r="U8" s="11">
+      <c r="AT8" s="10">
         <v>0.38</v>
       </c>
-      <c r="V8" s="11">
+      <c r="AU8" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="W8" s="11">
+      <c r="AV8" s="10">
         <v>0.4</v>
       </c>
-      <c r="X8" s="11">
+      <c r="AW8" s="10">
         <v>7.03</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="AX8" s="10">
         <v>0.8</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="AY8" s="12">
         <f t="shared" si="1"/>
         <v>9.8498000000000019</v>
       </c>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
     </row>
-    <row r="9" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D9" s="12">
+    <row r="9" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D9" s="11">
         <v>180</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M9" s="22">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O9" s="22">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC9" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD9" s="10">
         <v>100</v>
       </c>
-      <c r="F9" s="11">
+      <c r="AE9" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11">
+      <c r="AF9" s="10">
+        <v>33.808</v>
+      </c>
+      <c r="AG9" s="10">
         <v>0.23</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="11">
+      <c r="AH9" s="10">
+        <v>21.428000000000001</v>
+      </c>
+      <c r="AI9" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K9" s="11">
+      <c r="AJ9" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L9" s="11">
+      <c r="AK9" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M9" s="11">
+      <c r="AL9" s="10">
         <v>20</v>
       </c>
-      <c r="N9" s="12">
+      <c r="AM9" s="10">
         <v>2.25</v>
       </c>
-      <c r="O9" s="11">
+      <c r="AN9" s="10">
         <v>0.82</v>
       </c>
-      <c r="P9" s="11">
+      <c r="AO9" s="10">
         <v>0.09</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="AP9" s="1">
         <f t="shared" si="0"/>
         <v>4.9867999999999997</v>
       </c>
-      <c r="R9" s="11">
+      <c r="AQ9" s="10">
         <v>1.03</v>
       </c>
-      <c r="S9" s="11">
+      <c r="AR9" s="10">
         <v>1.17</v>
       </c>
-      <c r="T9" s="11">
+      <c r="AS9" s="10">
         <v>0.49</v>
       </c>
-      <c r="U9" s="11">
+      <c r="AT9" s="10">
         <v>0.4</v>
       </c>
-      <c r="V9" s="11">
+      <c r="AU9" s="10">
         <v>0.22</v>
       </c>
-      <c r="W9" s="11">
+      <c r="AV9" s="10">
         <v>0.32</v>
       </c>
-      <c r="X9" s="11">
+      <c r="AW9" s="10">
         <v>10.27</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="AX9" s="10">
         <v>0.89</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="AY9" s="12">
         <f t="shared" si="1"/>
         <v>13.7502</v>
       </c>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
     </row>
-    <row r="10" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D10" s="12">
+    <row r="10" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D10" s="11">
         <v>180</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M10" s="22">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N10" s="22">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O10" s="22">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P10" s="22">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD10" s="10">
         <v>100</v>
       </c>
-      <c r="F10" s="11">
+      <c r="AE10" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11">
+      <c r="AF10" s="10">
+        <v>33.808</v>
+      </c>
+      <c r="AG10" s="10">
         <v>0.23</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="11">
+      <c r="AH10" s="10">
+        <v>21.428000000000001</v>
+      </c>
+      <c r="AI10" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K10" s="11">
+      <c r="AJ10" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L10" s="11">
+      <c r="AK10" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M10" s="11">
+      <c r="AL10" s="10">
         <v>30</v>
       </c>
-      <c r="N10" s="12">
+      <c r="AM10" s="10">
         <v>2.4900000000000002</v>
       </c>
-      <c r="O10" s="11">
+      <c r="AN10" s="10">
         <v>0.9</v>
       </c>
-      <c r="P10" s="11">
+      <c r="AO10" s="10">
         <v>0.15</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="AP10" s="1">
         <f t="shared" si="0"/>
         <v>5.4619999999999997</v>
       </c>
-      <c r="R10" s="11">
+      <c r="AQ10" s="10">
         <v>1.28</v>
       </c>
-      <c r="S10" s="11">
+      <c r="AR10" s="10">
         <v>1.03</v>
       </c>
-      <c r="T10" s="11">
+      <c r="AS10" s="10">
         <v>0.68</v>
       </c>
-      <c r="U10" s="11">
+      <c r="AT10" s="10">
         <v>0.97</v>
       </c>
-      <c r="V10" s="11">
+      <c r="AU10" s="10">
         <v>0.39</v>
       </c>
-      <c r="W10" s="11">
+      <c r="AV10" s="10">
         <v>0.26</v>
       </c>
-      <c r="X10" s="11">
+      <c r="AW10" s="10">
         <v>12.25</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="AX10" s="10">
         <v>1.06</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="AY10" s="12">
         <f t="shared" si="1"/>
         <v>16.366699999999998</v>
       </c>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
     </row>
-    <row r="11" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D11" s="14">
+    <row r="11" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D11" s="13">
         <v>180</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M11" s="21">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="N11" s="21">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="O11" s="21">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>4.3E-3</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>2.3E-3</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AD11" s="14">
         <v>100</v>
       </c>
-      <c r="F11" s="15">
+      <c r="AE11" s="14">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="15">
+      <c r="AF11" s="14">
+        <v>33.808</v>
+      </c>
+      <c r="AG11" s="14">
         <v>0.23</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="15">
+      <c r="AH11" s="14">
+        <v>21.428000000000001</v>
+      </c>
+      <c r="AI11" s="14">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K11" s="15">
+      <c r="AJ11" s="14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L11" s="15">
+      <c r="AK11" s="14">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M11" s="15">
+      <c r="AL11" s="14">
         <v>40</v>
       </c>
-      <c r="N11" s="12">
+      <c r="AM11" s="14">
         <v>2.64</v>
       </c>
-      <c r="O11" s="11">
+      <c r="AN11" s="14">
         <v>0.94</v>
       </c>
-      <c r="P11" s="11">
+      <c r="AO11" s="14">
         <v>0.18</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="AP11" s="19">
         <f t="shared" si="0"/>
         <v>5.6665999999999999</v>
       </c>
-      <c r="R11" s="11">
+      <c r="AQ11" s="14">
         <v>2.0299999999999998</v>
       </c>
-      <c r="S11" s="11">
+      <c r="AR11" s="14">
         <v>1.01</v>
       </c>
-      <c r="T11" s="11">
+      <c r="AS11" s="14">
         <v>0.9</v>
       </c>
-      <c r="U11" s="11">
+      <c r="AT11" s="14">
         <v>2.86</v>
       </c>
-      <c r="V11" s="11">
+      <c r="AU11" s="14">
         <v>0.9</v>
       </c>
-      <c r="W11" s="11">
+      <c r="AV11" s="14">
         <v>0.17</v>
       </c>
-      <c r="X11" s="11">
+      <c r="AW11" s="14">
         <v>11.91</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="AX11" s="14">
         <v>0.63</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="AY11" s="15">
         <f t="shared" si="1"/>
         <v>17.0962</v>
       </c>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
     </row>
-    <row r="12" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D12" s="8">
+    <row r="12" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D12" s="7">
         <v>195</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M12" s="20">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N12" s="20">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O12" s="20">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P12" s="20">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>0.1573</v>
+      </c>
+      <c r="AC12" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="AD12" s="8">
         <v>100</v>
       </c>
-      <c r="F12" s="9">
+      <c r="AE12" s="8">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G12" s="9">
-        <f>E12*F12-Q12</f>
+      <c r="AF12" s="8">
+        <f>AD12*AE12-AP12</f>
         <v>33.055999999999997</v>
       </c>
-      <c r="H12" s="9">
+      <c r="AG12" s="8">
         <v>0.23</v>
       </c>
-      <c r="I12" s="9">
-        <f t="shared" ref="I12:I19" si="2">E12*H12 - Z12</f>
+      <c r="AH12" s="8">
+        <f t="shared" ref="AH12:AH19" si="2">AD12*AG12 - AY12</f>
         <v>19.6296</v>
       </c>
-      <c r="J12" s="9">
+      <c r="AI12" s="8">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K12" s="9">
+      <c r="AJ12" s="8">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L12" s="9">
+      <c r="AK12" s="8">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M12" s="9">
+      <c r="AL12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="AM12" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="O12" s="9">
+      <c r="AN12" s="8">
         <v>0</v>
       </c>
-      <c r="P12" s="9">
+      <c r="AO12" s="8">
         <v>0.05</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="AP12" s="18">
         <f t="shared" si="0"/>
         <v>1.7440000000000002</v>
       </c>
-      <c r="R12" s="9">
+      <c r="AQ12" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="S12" s="9">
+      <c r="AR12" s="8">
         <v>0.27</v>
       </c>
-      <c r="T12" s="9">
+      <c r="AS12" s="8">
         <v>0.13</v>
       </c>
-      <c r="U12" s="9">
+      <c r="AT12" s="8">
         <v>0</v>
       </c>
-      <c r="V12" s="9">
+      <c r="AU12" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="W12" s="9">
+      <c r="AV12" s="8">
         <v>0.64</v>
       </c>
-      <c r="X12" s="9">
+      <c r="AW12" s="8">
         <v>1.45</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="AX12" s="8">
         <v>0.22</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="AY12" s="9">
         <f t="shared" si="1"/>
         <v>3.3704000000000005</v>
       </c>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10"/>
     </row>
-    <row r="13" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D13" s="12">
+    <row r="13" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D13" s="11">
         <v>195</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M13" s="22">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N13" s="22">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O13" s="22">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P13" s="22">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>0.1573</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="AD13" s="10">
         <v>100</v>
       </c>
-      <c r="F13" s="11">
+      <c r="AE13" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11">
+      <c r="AF13" s="10">
+        <v>33.055999999999997</v>
+      </c>
+      <c r="AG13" s="10">
         <v>0.23</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="11">
+      <c r="AH13" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="AI13" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K13" s="11">
+      <c r="AJ13" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L13" s="11">
+      <c r="AK13" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M13" s="11">
+      <c r="AL13" s="10">
         <v>5</v>
       </c>
-      <c r="N13" s="12">
+      <c r="AM13" s="10">
         <v>2.04</v>
       </c>
-      <c r="O13" s="11">
+      <c r="AN13" s="10">
         <v>0.64</v>
       </c>
-      <c r="P13" s="11">
+      <c r="AO13" s="10">
         <v>0.13</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="AP13" s="1">
         <f t="shared" si="0"/>
         <v>4.9396000000000004</v>
       </c>
-      <c r="R13" s="11">
+      <c r="AQ13" s="10">
         <v>1.39</v>
       </c>
-      <c r="S13" s="11">
+      <c r="AR13" s="10">
         <v>0.92</v>
       </c>
-      <c r="T13" s="11">
+      <c r="AS13" s="10">
         <v>0.45</v>
       </c>
-      <c r="U13" s="11">
+      <c r="AT13" s="10">
         <v>0.51</v>
       </c>
-      <c r="V13" s="11">
+      <c r="AU13" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="W13" s="11">
+      <c r="AV13" s="10">
         <v>0.97</v>
       </c>
-      <c r="X13" s="11">
+      <c r="AW13" s="10">
         <v>6.48</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="AX13" s="10">
         <v>0.7</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="AY13" s="12">
         <f t="shared" si="1"/>
         <v>9.920399999999999</v>
       </c>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10"/>
     </row>
-    <row r="14" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D14" s="12">
+    <row r="14" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D14" s="11">
         <v>195</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M14" s="22">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N14" s="22">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O14" s="22">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P14" s="22">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z14" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="AA14" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB14" s="22">
+        <v>0.1573</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="AD14" s="10">
         <v>100</v>
       </c>
-      <c r="F14" s="11">
+      <c r="AE14" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11">
+      <c r="AF14" s="10">
+        <v>33.055999999999997</v>
+      </c>
+      <c r="AG14" s="10">
         <v>0.23</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="11">
+      <c r="AH14" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="AI14" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K14" s="11">
+      <c r="AJ14" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L14" s="11">
+      <c r="AK14" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M14" s="11">
+      <c r="AL14" s="10">
         <v>10</v>
       </c>
-      <c r="N14" s="12">
+      <c r="AM14" s="10">
         <v>2.2599999999999998</v>
       </c>
-      <c r="O14" s="11">
+      <c r="AN14" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P14" s="11">
+      <c r="AO14" s="10">
         <v>0.22</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="AP14" s="1">
         <f t="shared" si="0"/>
         <v>6.7170000000000005</v>
       </c>
-      <c r="R14" s="11">
+      <c r="AQ14" s="10">
         <v>1.92</v>
       </c>
-      <c r="S14" s="11">
+      <c r="AR14" s="10">
         <v>0.96</v>
       </c>
-      <c r="T14" s="11">
+      <c r="AS14" s="10">
         <v>0.8</v>
       </c>
-      <c r="U14" s="11">
+      <c r="AT14" s="10">
         <v>2.4</v>
       </c>
-      <c r="V14" s="11">
+      <c r="AU14" s="10">
         <v>0.64</v>
       </c>
-      <c r="W14" s="11">
+      <c r="AV14" s="10">
         <v>1.02</v>
       </c>
-      <c r="X14" s="11">
+      <c r="AW14" s="10">
         <v>9.66</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="AX14" s="10">
         <v>0.91</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="AY14" s="12">
         <f t="shared" si="1"/>
         <v>14.557200000000002</v>
       </c>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="10"/>
     </row>
-    <row r="15" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D15" s="12">
+    <row r="15" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D15" s="11">
         <v>195</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M15" s="22">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N15" s="22">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O15" s="22">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P15" s="22">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z15" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="AA15" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB15" s="22">
+        <v>0.1573</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="AD15" s="10">
         <v>100</v>
       </c>
-      <c r="F15" s="11">
+      <c r="AE15" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11">
+      <c r="AF15" s="10">
+        <v>33.055999999999997</v>
+      </c>
+      <c r="AG15" s="10">
         <v>0.23</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11">
+      <c r="AH15" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="AI15" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K15" s="11">
+      <c r="AJ15" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L15" s="11">
+      <c r="AK15" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M15" s="11">
+      <c r="AL15" s="10">
         <v>15</v>
       </c>
-      <c r="N15" s="12">
+      <c r="AM15" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="O15" s="11">
+      <c r="AN15" s="10">
         <v>1.37</v>
       </c>
-      <c r="P15" s="11">
+      <c r="AO15" s="10">
         <v>0.34</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="AP15" s="1">
         <f t="shared" si="0"/>
         <v>7.3303000000000003</v>
       </c>
-      <c r="R15" s="11">
+      <c r="AQ15" s="10">
         <v>2.91</v>
       </c>
-      <c r="S15" s="11">
+      <c r="AR15" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T15" s="11">
+      <c r="AS15" s="10">
         <v>1.08</v>
       </c>
-      <c r="U15" s="11">
+      <c r="AT15" s="10">
         <v>3.88</v>
       </c>
-      <c r="V15" s="11">
+      <c r="AU15" s="10">
         <v>1.37</v>
       </c>
-      <c r="W15" s="11">
+      <c r="AV15" s="10">
         <v>0.43</v>
       </c>
-      <c r="X15" s="11">
+      <c r="AW15" s="10">
         <v>11.12</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="AX15" s="10">
         <v>0.36</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="AY15" s="12">
         <f t="shared" si="1"/>
         <v>17.6633</v>
       </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
     </row>
-    <row r="16" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D16" s="12">
+    <row r="16" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D16" s="11">
         <v>195</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M16" s="22">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N16" s="22">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O16" s="22">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P16" s="22">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y16" s="22">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z16" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="AA16" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB16" s="22">
+        <v>0.1573</v>
+      </c>
+      <c r="AC16" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="AD16" s="10">
         <v>100</v>
       </c>
-      <c r="F16" s="11">
+      <c r="AE16" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11">
+      <c r="AF16" s="10">
+        <v>33.055999999999997</v>
+      </c>
+      <c r="AG16" s="10">
         <v>0.23</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11">
+      <c r="AH16" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="AI16" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K16" s="11">
+      <c r="AJ16" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L16" s="11">
+      <c r="AK16" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M16" s="11">
+      <c r="AL16" s="10">
         <v>20</v>
       </c>
-      <c r="N16" s="12">
+      <c r="AM16" s="10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="O16" s="11">
+      <c r="AN16" s="10">
         <v>1.72</v>
       </c>
-      <c r="P16" s="11">
+      <c r="AO16" s="10">
         <v>0.45</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="AP16" s="1">
         <f t="shared" si="0"/>
         <v>8.2698</v>
       </c>
-      <c r="R16" s="11">
+      <c r="AQ16" s="10">
         <v>3.71</v>
       </c>
-      <c r="S16" s="11">
+      <c r="AR16" s="10">
         <v>0.97</v>
       </c>
-      <c r="T16" s="11">
+      <c r="AS16" s="10">
         <v>1.23</v>
       </c>
-      <c r="U16" s="11">
+      <c r="AT16" s="10">
         <v>4.72</v>
       </c>
-      <c r="V16" s="11">
+      <c r="AU16" s="10">
         <v>2.38</v>
       </c>
-      <c r="W16" s="11">
+      <c r="AV16" s="10">
         <v>0.21</v>
       </c>
-      <c r="X16" s="11">
+      <c r="AW16" s="10">
         <v>5.43</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="AX16" s="10">
         <v>0.11</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="AY16" s="12">
         <f t="shared" si="1"/>
         <v>13.804600000000001</v>
       </c>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="10"/>
     </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D17" s="12">
+    <row r="17" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D17" s="11">
         <v>195</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M17" s="22">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N17" s="22">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O17" s="22">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P17" s="22">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z17" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="AA17" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB17" s="22">
+        <v>0.1573</v>
+      </c>
+      <c r="AC17" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="AD17" s="10">
         <v>100</v>
       </c>
-      <c r="F17" s="11">
+      <c r="AE17" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11">
+      <c r="AF17" s="10">
+        <v>33.055999999999997</v>
+      </c>
+      <c r="AG17" s="10">
         <v>0.23</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="11">
+      <c r="AH17" s="10">
+        <v>19.63</v>
+      </c>
+      <c r="AI17" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K17" s="11">
+      <c r="AJ17" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L17" s="11">
+      <c r="AK17" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M17" s="11">
+      <c r="AL17" s="10">
         <v>30</v>
       </c>
-      <c r="N17" s="12">
+      <c r="AM17" s="10">
         <v>2.13</v>
       </c>
-      <c r="O17" s="11">
+      <c r="AN17" s="10">
         <v>1.95</v>
       </c>
-      <c r="P17" s="11">
+      <c r="AO17" s="10">
         <v>0.6</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="AP17" s="1">
         <f t="shared" si="0"/>
         <v>8.7624999999999993</v>
       </c>
-      <c r="R17" s="11">
+      <c r="AQ17" s="10">
         <v>4.93</v>
       </c>
-      <c r="S17" s="11">
+      <c r="AR17" s="10">
         <v>0.82</v>
       </c>
-      <c r="T17" s="11">
+      <c r="AS17" s="10">
         <v>1.66</v>
       </c>
-      <c r="U17" s="11">
+      <c r="AT17" s="10">
         <v>3.79</v>
       </c>
-      <c r="V17" s="11">
+      <c r="AU17" s="10">
         <v>3.97</v>
       </c>
-      <c r="W17" s="11">
+      <c r="AV17" s="10">
         <v>0.1</v>
       </c>
-      <c r="X17" s="11">
+      <c r="AW17" s="10">
         <v>3.39</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="AX17" s="10">
         <v>0.47</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="AY17" s="12">
         <f t="shared" si="1"/>
         <v>15.5541</v>
       </c>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="10"/>
     </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D18" s="14">
+    <row r="18" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D18" s="13">
         <v>195</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="M18" s="21">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="N18" s="21">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="O18" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="P18" s="21">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Y18" s="21">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>0.1573</v>
+      </c>
+      <c r="AC18" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="AD18" s="14">
         <v>100</v>
       </c>
-      <c r="F18" s="15">
+      <c r="AE18" s="14">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="15">
+      <c r="AF18" s="14">
+        <v>33.055999999999997</v>
+      </c>
+      <c r="AG18" s="14">
         <v>0.23</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="15">
+      <c r="AH18" s="14">
+        <v>19.63</v>
+      </c>
+      <c r="AI18" s="14">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K18" s="15">
+      <c r="AJ18" s="14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L18" s="15">
+      <c r="AK18" s="14">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M18" s="15">
+      <c r="AL18" s="14">
         <v>40</v>
       </c>
-      <c r="N18" s="12">
+      <c r="AM18" s="14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="O18" s="11">
+      <c r="AN18" s="14">
         <v>0.89</v>
       </c>
-      <c r="P18" s="11">
+      <c r="AO18" s="14">
         <v>0.74</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="AP18" s="19">
         <f t="shared" si="0"/>
         <v>4.7561</v>
       </c>
-      <c r="R18" s="11">
+      <c r="AQ18" s="14">
         <v>3.47</v>
       </c>
-      <c r="S18" s="11">
+      <c r="AR18" s="14">
         <v>0.36</v>
       </c>
-      <c r="T18" s="11">
+      <c r="AS18" s="14">
         <v>1.53</v>
       </c>
-      <c r="U18" s="11">
+      <c r="AT18" s="14">
         <v>1.26</v>
       </c>
-      <c r="V18" s="11">
+      <c r="AU18" s="14">
         <v>5.31</v>
       </c>
-      <c r="W18" s="11">
+      <c r="AV18" s="14">
         <v>0.11</v>
       </c>
-      <c r="X18" s="11">
+      <c r="AW18" s="14">
         <v>0.65</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="AX18" s="14">
         <v>0.05</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="AY18" s="15">
         <f t="shared" si="1"/>
         <v>12.446700000000002</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="10"/>
     </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D19" s="8">
+    <row r="19" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D19" s="11">
         <v>210</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O19" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P19" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z19" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA19" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB19" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC19" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD19" s="8">
         <v>100</v>
       </c>
-      <c r="F19" s="9">
+      <c r="AE19" s="8">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G19" s="9">
-        <f>E19*F19-Q19</f>
+      <c r="AF19" s="8">
+        <f>AD19*AE19-AP19</f>
         <v>29.793799999999997</v>
       </c>
-      <c r="H19" s="9">
+      <c r="AG19" s="8">
         <v>0.23</v>
       </c>
-      <c r="I19" s="9">
+      <c r="AH19" s="8">
         <f t="shared" si="2"/>
         <v>12.256599999999999</v>
       </c>
-      <c r="J19" s="9">
+      <c r="AI19" s="8">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K19" s="9">
+      <c r="AJ19" s="8">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L19" s="9">
+      <c r="AK19" s="8">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M19" s="9">
+      <c r="AL19" s="8">
         <v>0</v>
       </c>
-      <c r="N19" s="8">
+      <c r="AM19" s="8">
         <v>2.12</v>
       </c>
-      <c r="O19" s="9">
+      <c r="AN19" s="8">
         <v>0.78</v>
       </c>
-      <c r="P19" s="9">
+      <c r="AO19" s="8">
         <v>0.49</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="AP19" s="18">
         <f t="shared" si="0"/>
         <v>5.0061999999999998</v>
       </c>
-      <c r="R19" s="9">
+      <c r="AQ19" s="8">
         <v>1.47</v>
       </c>
-      <c r="S19" s="9">
+      <c r="AR19" s="8">
         <v>0.43</v>
       </c>
-      <c r="T19" s="9">
+      <c r="AS19" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="U19" s="9">
+      <c r="AT19" s="8">
         <v>1.81</v>
       </c>
-      <c r="V19" s="9">
+      <c r="AU19" s="8">
         <v>2.74</v>
       </c>
-      <c r="W19" s="9">
+      <c r="AV19" s="8">
         <v>0.1</v>
       </c>
-      <c r="X19" s="9">
+      <c r="AW19" s="8">
         <v>4.7300000000000004</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="AX19" s="8">
         <v>0.17</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="AY19" s="9">
         <f t="shared" si="1"/>
         <v>10.743400000000001</v>
       </c>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="10"/>
     </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D20" s="12">
+    <row r="20" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D20" s="11">
         <v>210</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M20" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O20" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P20" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z20" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA20" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB20" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC20" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD20" s="10">
         <v>100</v>
       </c>
-      <c r="F20" s="11">
+      <c r="AE20" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11">
+      <c r="AF20" s="10">
+        <v>29.794</v>
+      </c>
+      <c r="AG20" s="10">
         <v>0.23</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="11">
+      <c r="AH20" s="10">
+        <v>12.257</v>
+      </c>
+      <c r="AI20" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K20" s="11">
+      <c r="AJ20" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L20" s="11">
+      <c r="AK20" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M20" s="11">
+      <c r="AL20" s="10">
         <v>5</v>
       </c>
-      <c r="N20" s="12">
+      <c r="AM20" s="10">
         <v>2.44</v>
       </c>
-      <c r="O20" s="11">
+      <c r="AN20" s="10">
         <v>1.87</v>
       </c>
-      <c r="P20" s="11">
+      <c r="AO20" s="10">
         <v>0.48</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="AP20" s="1">
         <f t="shared" si="0"/>
         <v>8.8003</v>
       </c>
-      <c r="R20" s="11">
+      <c r="AQ20" s="10">
         <v>4.04</v>
       </c>
-      <c r="S20" s="11">
+      <c r="AR20" s="10">
         <v>0.86</v>
       </c>
-      <c r="T20" s="11">
+      <c r="AS20" s="10">
         <v>1.44</v>
       </c>
-      <c r="U20" s="11">
+      <c r="AT20" s="10">
         <v>4.17</v>
       </c>
-      <c r="V20" s="11">
+      <c r="AU20" s="10">
         <v>2.72</v>
       </c>
-      <c r="W20" s="11">
+      <c r="AV20" s="10">
         <v>0.25</v>
       </c>
-      <c r="X20" s="11">
+      <c r="AW20" s="10">
         <v>7.07</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="AX20" s="10">
         <v>0.23</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="AY20" s="12">
         <f t="shared" si="1"/>
         <v>16.375200000000003</v>
       </c>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="10"/>
     </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D21" s="12">
+    <row r="21" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D21" s="11">
         <v>210</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O21" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P21" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z21" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA21" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC21" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD21" s="10">
         <v>100</v>
       </c>
-      <c r="F21" s="11">
+      <c r="AE21" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11">
+      <c r="AF21" s="10">
+        <v>29.794</v>
+      </c>
+      <c r="AG21" s="10">
         <v>0.23</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="11">
+      <c r="AH21" s="10">
+        <v>12.257</v>
+      </c>
+      <c r="AI21" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K21" s="11">
+      <c r="AJ21" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L21" s="11">
+      <c r="AK21" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M21" s="11">
+      <c r="AL21" s="10">
         <v>10</v>
       </c>
-      <c r="N21" s="12">
+      <c r="AM21" s="10">
         <v>1.38</v>
       </c>
-      <c r="O21" s="11">
+      <c r="AN21" s="10">
         <v>2.12</v>
       </c>
-      <c r="P21" s="11">
+      <c r="AO21" s="10">
         <v>0.75</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="AP21" s="1">
         <f t="shared" si="0"/>
         <v>9.3127999999999993</v>
       </c>
-      <c r="R21" s="11">
+      <c r="AQ21" s="10">
         <v>4.16</v>
       </c>
-      <c r="S21" s="11">
+      <c r="AR21" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T21" s="11">
+      <c r="AS21" s="10">
         <v>2</v>
       </c>
-      <c r="U21" s="11">
+      <c r="AT21" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="V21" s="11">
+      <c r="AU21" s="10">
         <v>5.07</v>
       </c>
-      <c r="W21" s="11">
+      <c r="AV21" s="10">
         <v>0.62</v>
       </c>
-      <c r="X21" s="11">
+      <c r="AW21" s="10">
         <v>0.94</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="AX21" s="10">
         <v>0.05</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="AY21" s="12">
         <f t="shared" si="1"/>
         <v>14.048700000000002</v>
       </c>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
     </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D22" s="12">
+    <row r="22" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D22" s="11">
         <v>210</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O22" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z22" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA22" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC22" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD22" s="10">
         <v>100</v>
       </c>
-      <c r="F22" s="11">
+      <c r="AE22" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11">
+      <c r="AF22" s="10">
+        <v>29.794</v>
+      </c>
+      <c r="AG22" s="10">
         <v>0.23</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11">
+      <c r="AH22" s="10">
+        <v>12.257</v>
+      </c>
+      <c r="AI22" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K22" s="11">
+      <c r="AJ22" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L22" s="11">
+      <c r="AK22" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M22" s="11">
+      <c r="AL22" s="10">
         <v>15</v>
       </c>
-      <c r="N22" s="12">
+      <c r="AM22" s="10">
         <v>1.18</v>
       </c>
-      <c r="O22" s="11">
+      <c r="AN22" s="10">
         <v>2.38</v>
       </c>
-      <c r="P22" s="11">
+      <c r="AO22" s="10">
         <v>1.17</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="AP22" s="1">
         <f t="shared" si="0"/>
         <v>10.420199999999999</v>
       </c>
-      <c r="R22" s="11">
+      <c r="AQ22" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="S22" s="11">
+      <c r="AR22" s="10">
         <v>1.06</v>
       </c>
-      <c r="T22" s="11">
+      <c r="AS22" s="10">
         <v>2.21</v>
       </c>
-      <c r="U22" s="11">
+      <c r="AT22" s="10">
         <v>0.47</v>
       </c>
-      <c r="V22" s="11">
+      <c r="AU22" s="10">
         <v>5.4</v>
       </c>
-      <c r="W22" s="11">
+      <c r="AV22" s="10">
         <v>0.6</v>
       </c>
-      <c r="X22" s="11">
+      <c r="AW22" s="10">
         <v>0.22</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="AX22" s="10">
         <v>0.03</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="AY22" s="12">
         <f t="shared" si="1"/>
         <v>11.131200000000002</v>
       </c>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
     </row>
-    <row r="23" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D23" s="12">
+    <row r="23" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D23" s="11">
         <v>210</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O23" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P23" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z23" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC23" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD23" s="10">
         <v>100</v>
       </c>
-      <c r="F23" s="11">
+      <c r="AE23" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11">
+      <c r="AF23" s="10">
+        <v>29.794</v>
+      </c>
+      <c r="AG23" s="10">
         <v>0.23</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="11">
+      <c r="AH23" s="10">
+        <v>12.257</v>
+      </c>
+      <c r="AI23" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K23" s="11">
+      <c r="AJ23" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L23" s="11">
+      <c r="AK23" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M23" s="11">
+      <c r="AL23" s="10">
         <v>20</v>
       </c>
-      <c r="N23" s="12">
+      <c r="AM23" s="10">
         <v>0.86</v>
       </c>
-      <c r="O23" s="11">
+      <c r="AN23" s="10">
         <v>2.36</v>
       </c>
-      <c r="P23" s="11">
+      <c r="AO23" s="10">
         <v>1.2</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="AP23" s="1">
         <f t="shared" si="0"/>
         <v>10.016399999999997</v>
       </c>
-      <c r="R23" s="11">
+      <c r="AQ23" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S23" s="11">
+      <c r="AR23" s="10">
         <v>0.35</v>
       </c>
-      <c r="T23" s="11">
+      <c r="AS23" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="U23" s="11">
+      <c r="AT23" s="10">
         <v>0.45</v>
       </c>
-      <c r="V23" s="11">
+      <c r="AU23" s="10">
         <v>4.7699999999999996</v>
       </c>
-      <c r="W23" s="11">
+      <c r="AV23" s="10">
         <v>0.51</v>
       </c>
-      <c r="X23" s="11">
+      <c r="AW23" s="10">
         <v>0.24</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="AX23" s="10">
         <v>0.03</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="AY23" s="12">
         <f t="shared" si="1"/>
         <v>9.0992999999999995</v>
       </c>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
     </row>
-    <row r="24" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D24" s="12">
+    <row r="24" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D24" s="11">
         <v>210</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M24" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O24" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P24" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC24" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD24" s="10">
         <v>100</v>
       </c>
-      <c r="F24" s="11">
+      <c r="AE24" s="10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11">
+      <c r="AF24" s="10">
+        <v>29.794</v>
+      </c>
+      <c r="AG24" s="10">
         <v>0.23</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="11">
+      <c r="AH24" s="10">
+        <v>12.257</v>
+      </c>
+      <c r="AI24" s="10">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K24" s="11">
+      <c r="AJ24" s="10">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L24" s="11">
+      <c r="AK24" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M24" s="11">
+      <c r="AL24" s="10">
         <v>30</v>
       </c>
-      <c r="N24" s="12">
+      <c r="AM24" s="10">
         <v>0.82</v>
       </c>
-      <c r="O24" s="11">
+      <c r="AN24" s="10">
         <v>1.98</v>
       </c>
-      <c r="P24" s="11">
+      <c r="AO24" s="10">
         <v>1.01</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="AP24" s="1">
         <f t="shared" si="0"/>
         <v>8.3581999999999983</v>
       </c>
-      <c r="R24" s="11">
+      <c r="AQ24" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S24" s="11">
+      <c r="AR24" s="10">
         <v>0.31</v>
       </c>
-      <c r="T24" s="11">
+      <c r="AS24" s="10">
         <v>1.7</v>
       </c>
-      <c r="U24" s="11">
+      <c r="AT24" s="10">
         <v>0.42</v>
       </c>
-      <c r="V24" s="11">
+      <c r="AU24" s="10">
         <v>4.33</v>
       </c>
-      <c r="W24" s="11">
+      <c r="AV24" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="X24" s="11">
+      <c r="AW24" s="10">
         <v>0.12</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="AX24" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="AY24" s="12">
         <f t="shared" si="1"/>
         <v>8.0604999999999993</v>
       </c>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
     </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.3">
-      <c r="D25" s="14">
+    <row r="25" spans="4:55" x14ac:dyDescent="0.3">
+      <c r="D25" s="13">
         <v>210</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="N25" s="22">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="O25" s="22">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Z25" s="22">
+        <v>0.31</v>
+      </c>
+      <c r="AA25" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB25" s="22">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="AC25" s="22">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="AD25" s="14">
         <v>100</v>
       </c>
-      <c r="F25" s="15">
+      <c r="AE25" s="14">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="15">
+      <c r="AF25" s="14">
+        <v>29.794</v>
+      </c>
+      <c r="AG25" s="14">
         <v>0.23</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="15">
+      <c r="AH25" s="14">
+        <v>12.257</v>
+      </c>
+      <c r="AI25" s="14">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K25" s="15">
+      <c r="AJ25" s="14">
         <v>0.14899999999999999</v>
       </c>
-      <c r="L25" s="15">
+      <c r="AK25" s="14">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M25" s="15">
+      <c r="AL25" s="14">
         <v>40</v>
       </c>
-      <c r="N25" s="14">
+      <c r="AM25" s="14">
         <v>0.51</v>
       </c>
-      <c r="O25" s="15">
+      <c r="AN25" s="14">
         <v>1.75</v>
       </c>
-      <c r="P25" s="15">
+      <c r="AO25" s="14">
         <v>0.98</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="AP25" s="19">
         <f t="shared" si="0"/>
         <v>7.3424999999999994</v>
       </c>
-      <c r="R25" s="15">
+      <c r="AQ25" s="14">
         <v>0.37</v>
       </c>
-      <c r="S25" s="15">
+      <c r="AR25" s="14">
         <v>0.27</v>
       </c>
-      <c r="T25" s="15">
+      <c r="AS25" s="14">
         <v>1.55</v>
       </c>
-      <c r="U25" s="15">
+      <c r="AT25" s="14">
         <v>0.34</v>
       </c>
-      <c r="V25" s="15">
+      <c r="AU25" s="14">
         <v>3.79</v>
       </c>
-      <c r="W25" s="15">
+      <c r="AV25" s="14">
         <v>0.3</v>
       </c>
-      <c r="X25" s="15">
+      <c r="AW25" s="14">
         <v>0.22</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="AX25" s="14">
         <v>0.12</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="AY25" s="15">
         <f t="shared" si="1"/>
         <v>7.2115</v>
       </c>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
